--- a/data/Simulations/PT1/Market Data/PT1_market_data_base.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB05F7D-475B-4B0D-849B-DAABEC86CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170201C-6D1B-4E6B-B133-6E591C48B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743CB53-578D-4528-B5C1-532954FC40A0}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>

--- a/data/Simulations/PT1/Market Data/PT1_market_data_base.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170201C-6D1B-4E6B-B133-6E591C48B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06DCF2-67D9-4242-90B2-DE368A0F3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,12 @@
     <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Flexibility, Winter" sheetId="10" r:id="rId6"/>
+    <sheet name="Flexibility, Winter" sheetId="11" r:id="rId6"/>
+    <sheet name="Energy, Summer" sheetId="6" r:id="rId7"/>
+    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId8"/>
+    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId9"/>
+    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId10"/>
+    <sheet name="Flexibility, Summer" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,14 +48,14 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F1AD2346-364A-4ADD-B59A-A812C8EF23B9}</author>
-    <author>tc={88B6E6CD-0632-4FD5-8BCF-6DC7024CB3E9}</author>
-    <author>tc={87FBF31C-FE1B-4673-BAA9-EAEE55B36BB3}</author>
-    <author>tc={39499534-6C39-43FF-B67C-14F1BA237A5A}</author>
-    <author>tc={7D358E37-B59E-4A1B-BB21-733E4A9A54C4}</author>
+    <author>tc={F492142A-F33F-4A48-8C2B-D25BD1C79A52}</author>
+    <author>tc={42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}</author>
+    <author>tc={E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}</author>
+    <author>tc={91D80F1D-A108-4855-BE75-5882C64785C8}</author>
+    <author>tc={D2B5D017-7110-4333-A6C1-A2134F4EE3D6}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F1AD2346-364A-4ADD-B59A-A812C8EF23B9}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +63,7 @@
     January 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{88B6E6CD-0632-4FD5-8BCF-6DC7024CB3E9}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +71,7 @@
     January 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{87FBF31C-FE1B-4673-BAA9-EAEE55B36BB3}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +79,7 @@
     January 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{39499534-6C39-43FF-B67C-14F1BA237A5A}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{91D80F1D-A108-4855-BE75-5882C64785C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +87,7 @@
     January 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{7D358E37-B59E-4A1B-BB21-733E4A9A54C4}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,14 +102,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C3693554-42E7-450F-A6AC-B31F5BC89846}</author>
-    <author>tc={2993B940-6A1D-46BC-9349-FB1CF8174EAE}</author>
-    <author>tc={C536EFFB-BF84-45F2-94E0-D44E354E9BD9}</author>
-    <author>tc={2C966E10-47B8-409A-94A2-DDC44FE43EA2}</author>
-    <author>tc={B598D9AA-59A4-4FE6-95C8-FA3FA97AC106}</author>
+    <author>tc={BC5ED841-48B8-4728-8352-7D400619558B}</author>
+    <author>tc={5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}</author>
+    <author>tc={2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}</author>
+    <author>tc={4313512D-A95F-437E-A255-065E16D79BD9}</author>
+    <author>tc={8A456D35-CCD9-422E-8BAA-9031C5F8E300}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C3693554-42E7-450F-A6AC-B31F5BC89846}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BC5ED841-48B8-4728-8352-7D400619558B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +117,7 @@
     January 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{2993B940-6A1D-46BC-9349-FB1CF8174EAE}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +125,7 @@
     January 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{C536EFFB-BF84-45F2-94E0-D44E354E9BD9}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +133,7 @@
     January 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{2C966E10-47B8-409A-94A2-DDC44FE43EA2}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{4313512D-A95F-437E-A255-065E16D79BD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +141,7 @@
     January 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{B598D9AA-59A4-4FE6-95C8-FA3FA97AC106}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{8A456D35-CCD9-422E-8BAA-9031C5F8E300}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,14 +156,14 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C94223A1-324E-49A5-89AC-2CBB2A2B0087}</author>
-    <author>tc={42AF77C5-F058-4190-B655-BE78EA15F6F7}</author>
-    <author>tc={99990B4D-D320-4577-9566-0688DFD59A39}</author>
-    <author>tc={0DDFB970-8A65-4C90-BDDC-006C679B9C84}</author>
-    <author>tc={6EF42476-D53A-4B75-8667-6627417B7217}</author>
+    <author>tc={27BBEE63-A8A7-4699-A7B1-99BA633DB036}</author>
+    <author>tc={6515A72A-86CF-41BD-8320-76E1F5B1FADE}</author>
+    <author>tc={C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}</author>
+    <author>tc={A29A603E-395A-483A-9FAA-17008078BCAF}</author>
+    <author>tc={2928A141-A609-4694-9DFD-6755D7D2B487}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C94223A1-324E-49A5-89AC-2CBB2A2B0087}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -166,7 +171,7 @@
     January 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{42AF77C5-F058-4190-B655-BE78EA15F6F7}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{6515A72A-86CF-41BD-8320-76E1F5B1FADE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -174,7 +179,7 @@
     January 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{99990B4D-D320-4577-9566-0688DFD59A39}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -182,7 +187,7 @@
     January 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{0DDFB970-8A65-4C90-BDDC-006C679B9C84}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{A29A603E-395A-483A-9FAA-17008078BCAF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -190,7 +195,7 @@
     January 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{6EF42476-D53A-4B75-8667-6627417B7217}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{2928A141-A609-4694-9DFD-6755D7D2B487}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -206,14 +211,14 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5E294A44-4A7E-46C9-879F-72E0A6D4FD9B}</author>
-    <author>tc={5420877D-37A2-4189-9B9D-2CE2B4066E03}</author>
-    <author>tc={AE9611DF-AED5-4CFE-B135-3F31B0ED846C}</author>
-    <author>tc={763FAD4D-EAD6-4504-82CE-06820624F989}</author>
-    <author>tc={9B6BB964-0BC3-48AE-9B19-BEFCCCEDCF80}</author>
+    <author>tc={B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}</author>
+    <author>tc={7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}</author>
+    <author>tc={1441AFA9-0459-492B-9789-9D88C0326E19}</author>
+    <author>tc={22AE99E3-3426-40FC-9E18-2B38B6714C60}</author>
+    <author>tc={0612EA72-168D-449C-A9D3-EBEF9788A1AD}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5E294A44-4A7E-46C9-879F-72E0A6D4FD9B}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -221,7 +226,7 @@
     January 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5420877D-37A2-4189-9B9D-2CE2B4066E03}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +234,7 @@
     January 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{AE9611DF-AED5-4CFE-B135-3F31B0ED846C}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{1441AFA9-0459-492B-9789-9D88C0326E19}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +242,7 @@
     January 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{763FAD4D-EAD6-4504-82CE-06820624F989}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{22AE99E3-3426-40FC-9E18-2B38B6714C60}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,7 +250,7 @@
     January 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{9B6BB964-0BC3-48AE-9B19-BEFCCCEDCF80}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{0612EA72-168D-449C-A9D3-EBEF9788A1AD}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -258,8 +263,224 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}</author>
+    <author>tc={E0C33859-F9C0-451D-98A5-FABAC43C6D15}</author>
+    <author>tc={573E4A7D-65BD-4B7B-8EA7-63038693DCE5}</author>
+    <author>tc={82E46766-03E0-4C14-91E7-11DC23E1FE80}</author>
+    <author>tc={1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={97A80AF1-EB1F-487E-9F7D-386A15F551BB}</author>
+    <author>tc={D9D923E9-03D3-4E55-A423-85BC7113D1FE}</author>
+    <author>tc={55C4C18D-BEA0-4078-A744-9715D0BAE80C}</author>
+    <author>tc={AB80A1C6-22EB-4F45-A615-0442EDDE4748}</author>
+    <author>tc={062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}</author>
+    <author>tc={90231538-AA15-40A8-A14C-AE678BBAB2D7}</author>
+    <author>tc={C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}</author>
+    <author>tc={049D7D6F-315E-4360-AD9A-9B04FAA4D63A}</author>
+    <author>tc={C1028DDF-8E0B-4B65-95F2-69439E5278F2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{90231538-AA15-40A8-A14C-AE678BBAB2D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{049D7D6F-315E-4360-AD9A-9B04FAA4D63A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{C1028DDF-8E0B-4B65-95F2-69439E5278F2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}</author>
+    <author>tc={A145369D-BB49-4757-87DC-CE83B745C245}</author>
+    <author>tc={0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}</author>
+    <author>tc={053ECB76-B3D0-457F-B52F-AAE72881C653}</author>
+    <author>tc={B34E4319-7F99-418C-A267-F6D413897DF9}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{A145369D-BB49-4757-87DC-CE83B745C245}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{053ECB76-B3D0-457F-B52F-AAE72881C653}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{B34E4319-7F99-418C-A267-F6D413897DF9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Scenario</t>
   </si>
@@ -618,19 +839,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F1AD2346-364A-4ADD-B59A-A812C8EF23B9}">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
     <text>January 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{88B6E6CD-0632-4FD5-8BCF-6DC7024CB3E9}">
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
     <text>January 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{87FBF31C-FE1B-4673-BAA9-EAEE55B36BB3}">
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
     <text>January 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{39499534-6C39-43FF-B67C-14F1BA237A5A}">
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{91D80F1D-A108-4855-BE75-5882C64785C8}">
     <text>January 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{7D358E37-B59E-4A1B-BB21-733E4A9A54C4}">
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
     <text>January 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
@@ -638,19 +859,19 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C3693554-42E7-450F-A6AC-B31F5BC89846}">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{BC5ED841-48B8-4728-8352-7D400619558B}">
     <text>January 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2993B940-6A1D-46BC-9349-FB1CF8174EAE}">
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}">
     <text>January 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C536EFFB-BF84-45F2-94E0-D44E354E9BD9}">
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}">
     <text>January 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2C966E10-47B8-409A-94A2-DDC44FE43EA2}">
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{4313512D-A95F-437E-A255-065E16D79BD9}">
     <text>January 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B598D9AA-59A4-4FE6-95C8-FA3FA97AC106}">
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{8A456D35-CCD9-422E-8BAA-9031C5F8E300}">
     <text>January 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
@@ -658,19 +879,19 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C94223A1-324E-49A5-89AC-2CBB2A2B0087}">
+  <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
     <text>January 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{42AF77C5-F058-4190-B655-BE78EA15F6F7}">
+  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{6515A72A-86CF-41BD-8320-76E1F5B1FADE}">
     <text>January 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{99990B4D-D320-4577-9566-0688DFD59A39}">
+  <threadedComment ref="A4" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}">
     <text>January 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0DDFB970-8A65-4C90-BDDC-006C679B9C84}">
+  <threadedComment ref="A5" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A29A603E-395A-483A-9FAA-17008078BCAF}">
     <text>January 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{6EF42476-D53A-4B75-8667-6627417B7217}">
+  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2928A141-A609-4694-9DFD-6755D7D2B487}">
     <text xml:space="preserve">January 17th, 2020
 </text>
   </threadedComment>
@@ -679,21 +900,101 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{5E294A44-4A7E-46C9-879F-72E0A6D4FD9B}">
+  <threadedComment ref="A2" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}">
     <text>January 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{5420877D-37A2-4189-9B9D-2CE2B4066E03}">
+  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}">
     <text>January 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{AE9611DF-AED5-4CFE-B135-3F31B0ED846C}">
+  <threadedComment ref="A4" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{1441AFA9-0459-492B-9789-9D88C0326E19}">
     <text>January 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{763FAD4D-EAD6-4504-82CE-06820624F989}">
+  <threadedComment ref="A5" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{22AE99E3-3426-40FC-9E18-2B38B6714C60}">
     <text>January 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{9B6BB964-0BC3-48AE-9B19-BEFCCCEDCF80}">
+  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0612EA72-168D-449C-A9D3-EBEF9788A1AD}">
     <text xml:space="preserve">January 17th, 2020
 </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
+    <text>July 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
+    <text>July 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
+    <text>July 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
+    <text>July 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
+    <text>July 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
+    <text>July 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
+    <text>July 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
+    <text>July 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
+    <text>July 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
+    <text>July 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}">
+    <text>July 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{90231538-AA15-40A8-A14C-AE678BBAB2D7}">
+    <text>July 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}">
+    <text>July 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{049D7D6F-315E-4360-AD9A-9B04FAA4D63A}">
+    <text>July 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C1028DDF-8E0B-4B65-95F2-69439E5278F2}">
+    <text>July 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}">
+    <text>July 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A145369D-BB49-4757-87DC-CE83B745C245}">
+    <text>July 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}">
+    <text>July 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{053ECB76-B3D0-457F-B52F-AAE72881C653}">
+    <text>July 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B34E4319-7F99-418C-A267-F6D413897DF9}">
+    <text>July 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -703,7 +1004,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,12 +1065,701 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="H2" s="4">
+        <f ca="1">AVERAGE(H4:H6)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <f>AVERAGE(I5:I5,I4:I6)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29.02</v>
+      </c>
+      <c r="P2" s="2">
+        <v>29.02</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R2" s="4">
+        <f>AVERAGE(R5:R5,R4:R6)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>30</v>
+      </c>
+      <c r="W2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(F5,F2,F4)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G3" s="4">
+        <f ca="1">AVERAGE(G2:G5)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H3" s="4">
+        <f ca="1">AVERAGE(H4:H6)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J3" s="4">
+        <f ca="1">AVERAGE(J5,J2:J6)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="K3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>29.98</v>
+      </c>
+      <c r="T3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="U3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="V3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>28</v>
+      </c>
+      <c r="X3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J4" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="N4" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="R4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="4">
+        <f ca="1">AVERAGE(D3:D6)</f>
+        <v>37.466666666666669</v>
+      </c>
+      <c r="E5" s="4">
+        <f ca="1">AVERAGE(E3:E5)</f>
+        <v>33.57</v>
+      </c>
+      <c r="F5" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G5" s="4">
+        <f ca="1">AVERAGE(G2:G5)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H5" s="4">
+        <f ca="1">AVERAGE(H4:H6)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="J5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="K5" s="4">
+        <f ca="1">AVERAGE(K3:K6)</f>
+        <v>24.89</v>
+      </c>
+      <c r="L5" s="2">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4">
+        <f ca="1">AVERAGE(M3:M6)</f>
+        <v>35.503333333333337</v>
+      </c>
+      <c r="N5" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="U5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="X5" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="4">
+        <f ca="1">AVERAGE(E3:E5)</f>
+        <v>33.57</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(F5,F2,F4)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G6" s="4">
+        <f ca="1">AVERAGE(G2:G5)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="J6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="L6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="M6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="N6" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O6" s="4">
+        <f>AVERAGE(O5:O5)</f>
+        <v>50.4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>AVERAGE(Q5:Q5)</f>
+        <v>50.4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB275C3D-DCB9-485A-9323-2E36D571791F}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'Secondary Reserve, Summer'!B2</f>
+        <v>6.52</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'Secondary Reserve, Summer'!C2</f>
+        <v>10.56</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'Secondary Reserve, Summer'!D2</f>
+        <v>5.92</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'Secondary Reserve, Summer'!E2</f>
+        <v>6.15</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'Secondary Reserve, Summer'!F2</f>
+        <v>6.79</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'Secondary Reserve, Summer'!G2</f>
+        <v>6.65</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'Secondary Reserve, Summer'!H2</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'Secondary Reserve, Summer'!I2</f>
+        <v>10.19</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'Secondary Reserve, Summer'!J2</f>
+        <v>9.76</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'Secondary Reserve, Summer'!K2</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'Secondary Reserve, Summer'!L2</f>
+        <v>8.66</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'Secondary Reserve, Summer'!M2</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'Secondary Reserve, Summer'!N2</f>
+        <v>7.8</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'Secondary Reserve, Summer'!O2</f>
+        <v>5.82</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'Secondary Reserve, Summer'!P2</f>
+        <v>6.56</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'Secondary Reserve, Summer'!Q2</f>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'Secondary Reserve, Summer'!R2</f>
+        <v>7.63</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'Secondary Reserve, Summer'!S2</f>
+        <v>8.42</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'Secondary Reserve, Summer'!T2</f>
+        <v>4.66</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'Secondary Reserve, Summer'!U2</f>
+        <v>4.32</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'Secondary Reserve, Summer'!V2</f>
+        <v>2.81</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'Secondary Reserve, Summer'!W2</f>
+        <v>2.81</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'Secondary Reserve, Summer'!X2</f>
+        <v>3.33</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'Secondary Reserve, Summer'!Y2</f>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F4" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +2264,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y6"/>
+      <selection activeCell="D5" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +2743,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y6"/>
+      <selection activeCell="C2" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +3235,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y6"/>
+      <selection activeCell="C5" sqref="A1:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,11 +3726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743CB53-578D-4528-B5C1-532954FC40A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF7587-AA65-4F33-8FA0-AB47A59BFC1E}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,4 +3916,1495 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="D2" s="2">
+        <v>26.69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2">
+        <v>26.22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>27.18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>31.63</v>
+      </c>
+      <c r="K2" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="L2" s="2">
+        <v>31.26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>27.77</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>34.99</v>
+      </c>
+      <c r="P2" s="2">
+        <v>32.99</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>33.53</v>
+      </c>
+      <c r="R2" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="S2" s="2">
+        <v>32.57</v>
+      </c>
+      <c r="T2" s="2">
+        <v>27.77</v>
+      </c>
+      <c r="U2" s="2">
+        <v>29.36</v>
+      </c>
+      <c r="V2" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="W2" s="2">
+        <v>37.11</v>
+      </c>
+      <c r="X2" s="2">
+        <v>36.92</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34.47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>29.79</v>
+      </c>
+      <c r="D3" s="2">
+        <v>28.16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26.77</v>
+      </c>
+      <c r="H3" s="2">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27.85</v>
+      </c>
+      <c r="J3" s="2">
+        <v>33.26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>36.15</v>
+      </c>
+      <c r="M3" s="2">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>36.57</v>
+      </c>
+      <c r="R3" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="T3" s="2">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="U3" s="2">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2">
+        <v>35.42</v>
+      </c>
+      <c r="W3" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <v>35.01</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36.19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>27.04</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>36.03</v>
+      </c>
+      <c r="J4" s="2">
+        <v>36.22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M4" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N4" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="O4" s="2">
+        <v>39.93</v>
+      </c>
+      <c r="P4" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>37.65</v>
+      </c>
+      <c r="R4" s="2">
+        <v>37.51</v>
+      </c>
+      <c r="S4" s="2">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="T4" s="2">
+        <v>36.56</v>
+      </c>
+      <c r="U4" s="2">
+        <v>36.32</v>
+      </c>
+      <c r="V4" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="W4" s="2">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="X4" s="2">
+        <v>36.72</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34.65</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>26.51</v>
+      </c>
+      <c r="H5" s="2">
+        <v>34.64</v>
+      </c>
+      <c r="I5" s="2">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="K5" s="2">
+        <v>37.68</v>
+      </c>
+      <c r="L5" s="2">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <v>34.28</v>
+      </c>
+      <c r="O5" s="2">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <v>34.65</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>36.18</v>
+      </c>
+      <c r="U5" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>38.99</v>
+      </c>
+      <c r="W5" s="2">
+        <v>39</v>
+      </c>
+      <c r="X5" s="2">
+        <v>38.99</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.56</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28.34</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30.02</v>
+      </c>
+      <c r="K6" s="2">
+        <v>31.18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="M6" s="2">
+        <v>30.47</v>
+      </c>
+      <c r="N6" s="2">
+        <v>33.49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <v>35.74</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>34.49</v>
+      </c>
+      <c r="R6" s="2">
+        <v>33.99</v>
+      </c>
+      <c r="S6" s="2">
+        <v>33.49</v>
+      </c>
+      <c r="T6" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="U6" s="2">
+        <v>35.01</v>
+      </c>
+      <c r="V6" s="2">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <v>37</v>
+      </c>
+      <c r="X6" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6.52</v>
+      </c>
+      <c r="C2">
+        <v>10.56</v>
+      </c>
+      <c r="D2">
+        <v>5.92</v>
+      </c>
+      <c r="E2">
+        <v>6.15</v>
+      </c>
+      <c r="F2">
+        <v>6.79</v>
+      </c>
+      <c r="G2">
+        <v>6.65</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10.19</v>
+      </c>
+      <c r="J2">
+        <v>9.76</v>
+      </c>
+      <c r="K2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L2">
+        <v>8.66</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>7.8</v>
+      </c>
+      <c r="O2">
+        <v>5.82</v>
+      </c>
+      <c r="P2">
+        <v>6.56</v>
+      </c>
+      <c r="Q2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="R2">
+        <v>7.63</v>
+      </c>
+      <c r="S2">
+        <v>8.42</v>
+      </c>
+      <c r="T2">
+        <v>4.66</v>
+      </c>
+      <c r="U2">
+        <v>4.32</v>
+      </c>
+      <c r="V2">
+        <v>2.81</v>
+      </c>
+      <c r="W2">
+        <v>2.81</v>
+      </c>
+      <c r="X2">
+        <v>3.33</v>
+      </c>
+      <c r="Y2">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11.27</v>
+      </c>
+      <c r="C3">
+        <v>12.24</v>
+      </c>
+      <c r="D3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F3">
+        <v>8.84</v>
+      </c>
+      <c r="G3">
+        <v>8.93</v>
+      </c>
+      <c r="H3">
+        <v>17.93</v>
+      </c>
+      <c r="I3">
+        <v>15.6</v>
+      </c>
+      <c r="J3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L3">
+        <v>7.71</v>
+      </c>
+      <c r="M3">
+        <v>7.97</v>
+      </c>
+      <c r="N3">
+        <v>9.08</v>
+      </c>
+      <c r="O3">
+        <v>7.13</v>
+      </c>
+      <c r="P3">
+        <v>7.4</v>
+      </c>
+      <c r="Q3">
+        <v>7.84</v>
+      </c>
+      <c r="R3">
+        <v>7.6</v>
+      </c>
+      <c r="S3">
+        <v>5.7</v>
+      </c>
+      <c r="T3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V3">
+        <v>2.38</v>
+      </c>
+      <c r="W3">
+        <v>2.8</v>
+      </c>
+      <c r="X3">
+        <v>2.09</v>
+      </c>
+      <c r="Y3">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.88</v>
+      </c>
+      <c r="C4">
+        <v>8.98</v>
+      </c>
+      <c r="D4">
+        <v>7.64</v>
+      </c>
+      <c r="E4">
+        <v>7.72</v>
+      </c>
+      <c r="F4">
+        <v>7.64</v>
+      </c>
+      <c r="G4">
+        <v>7.72</v>
+      </c>
+      <c r="H4">
+        <v>8.23</v>
+      </c>
+      <c r="I4">
+        <v>7.19</v>
+      </c>
+      <c r="J4">
+        <v>6.72</v>
+      </c>
+      <c r="K4">
+        <v>6.56</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P4">
+        <v>6.11</v>
+      </c>
+      <c r="Q4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S4">
+        <v>4.66</v>
+      </c>
+      <c r="T4">
+        <v>5.58</v>
+      </c>
+      <c r="U4">
+        <v>5.56</v>
+      </c>
+      <c r="V4">
+        <v>5.09</v>
+      </c>
+      <c r="W4">
+        <v>4.33</v>
+      </c>
+      <c r="X4">
+        <v>4.62</v>
+      </c>
+      <c r="Y4">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11.09</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.62</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.62</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.62</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.62</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10.42</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.96</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10.48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="P5" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="R5" s="2">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="S5" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="U5" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="V5" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="W5" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="X5" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.58</v>
+      </c>
+      <c r="C6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D6">
+        <v>6.33</v>
+      </c>
+      <c r="E6">
+        <v>6.8</v>
+      </c>
+      <c r="F6">
+        <v>6.8</v>
+      </c>
+      <c r="G6">
+        <v>6.25</v>
+      </c>
+      <c r="H6">
+        <v>7.77</v>
+      </c>
+      <c r="I6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J6">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K6">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L6">
+        <v>7.09</v>
+      </c>
+      <c r="M6">
+        <v>6.43</v>
+      </c>
+      <c r="N6">
+        <v>5.85</v>
+      </c>
+      <c r="O6">
+        <v>6.44</v>
+      </c>
+      <c r="P6">
+        <v>6.79</v>
+      </c>
+      <c r="Q6">
+        <v>8.14</v>
+      </c>
+      <c r="R6">
+        <v>8.51</v>
+      </c>
+      <c r="S6">
+        <v>9.17</v>
+      </c>
+      <c r="T6">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="U6">
+        <v>7.6</v>
+      </c>
+      <c r="V6">
+        <v>6.29</v>
+      </c>
+      <c r="W6">
+        <v>6.62</v>
+      </c>
+      <c r="X6">
+        <v>6.53</v>
+      </c>
+      <c r="Y6">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463E26D-6A8A-4B66-9A29-8928FA1FD067}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="F2" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="G2" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="H2" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="I2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="L2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="R2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="S2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="T2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="V2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="W2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="X2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="G3" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="H3" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="I3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="N3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="O3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="R3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="S3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="T3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="U3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="V3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="W3" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="X3" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="G4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="N4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="O4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="R4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="S4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="T4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="U4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="V4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="W4" s="2">
+        <v>95</v>
+      </c>
+      <c r="X4" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35.69</v>
+      </c>
+      <c r="H5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="N5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="O5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="P5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="R5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="S5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="T5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="U5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="V5" s="2">
+        <v>47.12</v>
+      </c>
+      <c r="W5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="X5" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Y5" s="4">
+        <f ca="1">AVERAGE(Y3:Y6)</f>
+        <v>47.043333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46.66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE(H5:H5)</f>
+        <v>47.22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>64.64</v>
+      </c>
+      <c r="J6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="L6" s="4">
+        <f>AVERAGE(L5:L5)</f>
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="N6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="O6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="P6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="R6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="S6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="T6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="U6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="V6" s="2">
+        <v>46.69</v>
+      </c>
+      <c r="W6" s="2">
+        <v>46.58</v>
+      </c>
+      <c r="X6" s="2">
+        <v>46.56</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>46.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>